--- a/reports/Timing numbers.xlsx
+++ b/reports/Timing numbers.xlsx
@@ -18,6 +18,7 @@
     <sheet name="q3 1k" sheetId="4" r:id="rId4"/>
     <sheet name="q4 1k" sheetId="5" r:id="rId5"/>
     <sheet name="load compare" sheetId="6" r:id="rId6"/>
+    <sheet name="timings 10k" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="18">
   <si>
     <t>Query</t>
   </si>
@@ -81,13 +82,16 @@
   <si>
     <t>Time (10k)</t>
   </si>
+  <si>
+    <t>Time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -120,35 +124,35 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.0000"/>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +249,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Time (Mid-term)</c:v>
+                  <c:v>Time (MT)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time (Final)</c:v>
@@ -279,11 +283,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243307688"/>
-        <c:axId val="243317488"/>
+        <c:axId val="236532984"/>
+        <c:axId val="236531024"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243307688"/>
+        <c:axId val="236532984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -311,7 +315,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -326,7 +330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243317488"/>
+        <c:crossAx val="236531024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -334,7 +338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243317488"/>
+        <c:axId val="236531024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -370,7 +374,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -385,7 +389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243307688"/>
+        <c:crossAx val="236532984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -516,7 +520,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Time (Mid-term)</c:v>
+                  <c:v>Time (MT)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time (Final)</c:v>
@@ -550,11 +554,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243316704"/>
-        <c:axId val="243320232"/>
+        <c:axId val="236533376"/>
+        <c:axId val="236530240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243316704"/>
+        <c:axId val="236533376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -582,7 +586,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -597,7 +601,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243320232"/>
+        <c:crossAx val="236530240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -605,7 +609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243320232"/>
+        <c:axId val="236530240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +645,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -656,7 +660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243316704"/>
+        <c:crossAx val="236533376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -787,7 +791,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Time (Mid-term)</c:v>
+                  <c:v>Time (MT)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time (Final)</c:v>
@@ -821,11 +825,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="309102816"/>
-        <c:axId val="309107912"/>
+        <c:axId val="236525928"/>
+        <c:axId val="236526320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="309102816"/>
+        <c:axId val="236525928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -853,7 +857,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -868,7 +872,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309107912"/>
+        <c:crossAx val="236526320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -876,7 +880,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309107912"/>
+        <c:axId val="236526320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -912,7 +916,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -927,7 +931,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309102816"/>
+        <c:crossAx val="236525928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -991,7 +995,14 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.40227964209169526"/>
+          <c:y val="2.2889832318460649E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1058,7 +1069,7 @@
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Time (Mid-term)</c:v>
+                  <c:v>Time (MT)</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>Time (Final)</c:v>
@@ -1092,11 +1103,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="311970112"/>
-        <c:axId val="243313176"/>
+        <c:axId val="236527104"/>
+        <c:axId val="236527496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311970112"/>
+        <c:axId val="236527104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1124,7 +1135,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1139,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243313176"/>
+        <c:crossAx val="236527496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1147,7 +1158,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243313176"/>
+        <c:axId val="236527496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1183,7 +1194,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1198,7 +1209,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311970112"/>
+        <c:crossAx val="236527104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1262,7 +1273,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1363,11 +1373,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="370136336"/>
-        <c:axId val="370133592"/>
+        <c:axId val="238353672"/>
+        <c:axId val="238360728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="370136336"/>
+        <c:axId val="238353672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1420,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370133592"/>
+        <c:crossAx val="238360728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1418,7 +1428,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370133592"/>
+        <c:axId val="238360728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,7 +1479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370136336"/>
+        <c:crossAx val="238353672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1533,7 +1543,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1634,11 +1643,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243309256"/>
-        <c:axId val="243312784"/>
+        <c:axId val="238359160"/>
+        <c:axId val="238360336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243309256"/>
+        <c:axId val="238359160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1681,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243312784"/>
+        <c:crossAx val="238360336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1689,7 +1698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="243312784"/>
+        <c:axId val="238360336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1749,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243309256"/>
+        <c:crossAx val="238359160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1804,7 +1813,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1905,11 +1913,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="243314352"/>
-        <c:axId val="370811456"/>
+        <c:axId val="238354064"/>
+        <c:axId val="238355632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="243314352"/>
+        <c:axId val="238354064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1952,7 +1960,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370811456"/>
+        <c:crossAx val="238355632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1960,7 +1968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370811456"/>
+        <c:axId val="238355632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2019,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="243314352"/>
+        <c:crossAx val="238354064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2075,7 +2083,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2176,11 +2183,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="311972856"/>
-        <c:axId val="311973248"/>
+        <c:axId val="238354456"/>
+        <c:axId val="238354848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="311972856"/>
+        <c:axId val="238354456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2230,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311973248"/>
+        <c:crossAx val="238354848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2231,7 +2238,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="311973248"/>
+        <c:axId val="238354848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2282,7 +2289,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="311972856"/>
+        <c:crossAx val="238354456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2346,7 +2353,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2447,11 +2453,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="363531456"/>
-        <c:axId val="363533416"/>
+        <c:axId val="238355240"/>
+        <c:axId val="238356808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="363531456"/>
+        <c:axId val="238355240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2494,7 +2500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363533416"/>
+        <c:crossAx val="238356808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2502,7 +2508,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="363533416"/>
+        <c:axId val="238356808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2553,7 +2559,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="363531456"/>
+        <c:crossAx val="238355240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7496,13 +7502,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>581025</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7524,15 +7530,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>112092</xdr:colOff>
+      <xdr:colOff>159718</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342899</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145390</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7554,15 +7560,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>428625</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145390</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7583,16 +7589,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>578817</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>83517</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>145390</xdr:rowOff>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7774,8 +7780,8 @@
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Test Case"/>
-    <tableColumn id="2" name="Time (Mid-term)" dataDxfId="3"/>
-    <tableColumn id="3" name="Time (Final)" dataDxfId="2"/>
+    <tableColumn id="2" name="Time (Mid-term)" dataDxfId="7"/>
+    <tableColumn id="3" name="Time (Final)" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7798,8 +7804,8 @@
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Case"/>
-    <tableColumn id="2" name="Time (MT)" dataDxfId="7"/>
-    <tableColumn id="3" name="Time (Fin)" dataDxfId="6"/>
+    <tableColumn id="2" name="Time (MT)" dataDxfId="3"/>
+    <tableColumn id="3" name="Time (Fin)" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7814,6 +7820,50 @@
     <tableColumn id="3" name="Time (Fin)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A1:B7" totalsRowShown="0">
+  <autoFilter ref="A1:B7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Case"/>
+    <tableColumn id="2" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="C1:D7" totalsRowShown="0">
+  <autoFilter ref="C1:D7"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Case"/>
+    <tableColumn id="2" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="E1:F4" totalsRowShown="0">
+  <autoFilter ref="E1:F4"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Case"/>
+    <tableColumn id="2" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="G1:H3" totalsRowShown="0">
+  <autoFilter ref="G1:H3"/>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Case"/>
+    <tableColumn id="2" name="Time"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -8083,7 +8133,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8097,7 +8147,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -8119,7 +8169,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -8141,7 +8191,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -8163,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
@@ -8852,4 +8902,166 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1.10100007057</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>642.56200003599997</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>335.68599986999999</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>2293.66299987</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>164.763000011</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>479.37900018699997</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.184000015259</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>2374.12400007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.9000043869E-2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>372.152999878</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>9.2000007629399999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4.3999910354599998E-2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>258.90400004399999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0.36400008201599998</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>141.902999878</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6.2000036239600001E-2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>28.0670001507</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
+  <tableParts count="4">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>